--- a/medicine/Enfance/Les_Carnets_de_Fantômette/Les_Carnets_de_Fantômette.xlsx
+++ b/medicine/Enfance/Les_Carnets_de_Fantômette/Les_Carnets_de_Fantômette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Carnets_de_Fant%C3%B4mette</t>
+          <t>Les_Carnets_de_Fantômette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Carnets de Fantômette est le 32e ouvrage de la série humoristique Fantômette créée par Georges Chaulet.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Carnets_de_Fant%C3%B4mette</t>
+          <t>Les_Carnets_de_Fantômette</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Notoriété</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises.
 Le roman Les Carnets de Fantômette a donc pu être vendu à environ 200000 exemplaires.
-Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais[2].
+Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Carnets_de_Fant%C3%B4mette</t>
+          <t>Les_Carnets_de_Fantômette</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Françoise Dupont / Fantômette : héroïne du roman
 Ficelle : amie de Françoise et de Boulotte
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Carnets_de_Fant%C3%B4mette</t>
+          <t>Les_Carnets_de_Fantômette</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l'édition cartonnée non abrégée parue en 1976 en langue française.
 L'effroyable invention du docteur Jonquille (p. 11 à 46)
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Les_Carnets_de_Fant%C3%B4mette</t>
+          <t>Les_Carnets_de_Fantômette</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +639,9 @@
           <t>Autour du roman</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans Les microsociétés de la littérature pour la jeunesse - L'exemple de Fantômette, éd. L’Harmattan, collection « Logiques sociales », 2000  (ISBN 2-7384-9829-9),  Pierre Bannier indique notamment en page 149 :
 « Un recueil de quatre nouvelles dont les trois premières sont particulièrement holmésiennes, de même que le prologue de l'ouvrage, où l'on découvre Œil de Lynx et Fantômette devant un bon feu de cheminée tandis que les éléments extérieurs se déchaînent. »
